--- a/modules/crm/pedidos/documentos/Formato precios base.xlsx
+++ b/modules/crm/pedidos/documentos/Formato precios base.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollador soft\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B8752D-F3EE-4104-A263-D07B80F8B63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304A895-E05D-414D-A2A6-761B128375AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AC4334A8-E2A0-4024-A434-9F65C74B76CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Precio base" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,18 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CODIGO</t>
   </si>
   <si>
     <t>PRECIO</t>
-  </si>
-  <si>
-    <t>03210206600</t>
-  </si>
-  <si>
-    <t>19175200000</t>
   </si>
   <si>
     <t>01140100000</t>
@@ -88,9 +82,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,8 +110,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52CBF488-83CA-4B67-B1ED-B6009D118A6D}" name="Tabla1" displayName="Tabla1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{52CBF488-83CA-4B67-B1ED-B6009D118A6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52CBF488-83CA-4B67-B1ED-B6009D118A6D}" name="Tabla1" displayName="Tabla1" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{52CBF488-83CA-4B67-B1ED-B6009D118A6D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
+    <sortCondition ref="A1:A3"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A2E6671E-1272-47B0-9B97-383A3FE7F815}" name="CODIGO" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7B11C64E-953E-45AA-916E-B3378E0E20A2}" name="PRECIO"/>
@@ -420,16 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF0A811-0429-42ED-BF59-0CF54E8EF0DE}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,7 +443,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>50000</v>
@@ -453,26 +454,19 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
         <v>17000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>20000</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="El codigo del producto debe de tener 11 caracteres." promptTitle="ddd" sqref="A1:A1048576" xr:uid="{03D1A3B5-979E-49E2-AF20-137F82D4F079}">
+      <formula1>11</formula1>
+      <formula2>11</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="El valor tiene que ser mayor a cero" sqref="B1:B1048576" xr:uid="{D5546030-A6C6-4D42-861D-DA1D65FD4DCB}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
